--- a/biology/Zoologie/Heteroctenus/Heteroctenus.xlsx
+++ b/biology/Zoologie/Heteroctenus/Heteroctenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteroctenus est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (24/10/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (24/10/2020) :
 Heteroctenus abudi (Armas &amp; Marcano Fondeur, 1987)
 Heteroctenus aridicola (Teruel &amp; Armas, 2012)
 Heteroctenus bonettii (Armas 1999)
@@ -582,9 +598,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1893. Il est placé en synonymie avec Rhopalurus par Pocock en 1902[3]. Il est relevé de synonymie par Esposito, Yamaguti, Souza, Pinto da Roacha et Prendini en 2017[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1893. Il est placé en synonymie avec Rhopalurus par Pocock en 1902. Il est relevé de synonymie par Esposito, Yamaguti, Souza, Pinto da Roacha et Prendini en 2017.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1893 : « Contribution to our knowledge of the Arthropod fauna of the West Indies. Part I. Scorpiones and Pedipalpi. Scorpiones. » Journal of the Linnaean Society, vol. 24, p. 374–404 (texte intégral).</t>
         </is>
